--- a/assets/datasource/Comic Writer Services.xlsx
+++ b/assets/datasource/Comic Writer Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\VisualStudio\ComicWriterServices\comicwriterservices\assets\datasource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8241B54F-92B9-466B-A503-0A274851DA96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310BF11F-22F8-4208-8852-1FD73B44709C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Writing for Comics (General)" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="The Plot" sheetId="5" r:id="rId5"/>
     <sheet name="Scripting" sheetId="6" r:id="rId6"/>
     <sheet name="Sample Scripts" sheetId="7" r:id="rId7"/>
-    <sheet name="Pitching And Submissions (inclu" sheetId="8" r:id="rId8"/>
+    <sheet name="Pitching And Submissions" sheetId="8" r:id="rId8"/>
     <sheet name="Editors" sheetId="9" r:id="rId9"/>
     <sheet name="Digital Comics" sheetId="10" r:id="rId10"/>
     <sheet name="Podcasts" sheetId="11" r:id="rId11"/>
-    <sheet name="Crowd-Funding Your Work (Kickst" sheetId="12" r:id="rId12"/>
+    <sheet name="Crowd-Funding Your Work" sheetId="12" r:id="rId12"/>
     <sheet name="Reddit AMA's" sheetId="13" r:id="rId13"/>
     <sheet name="Miscellany" sheetId="15" r:id="rId14"/>
   </sheets>
@@ -736,9 +736,6 @@
     <t>I REALLY recommend people take a look at this, it's a beautifully put together document</t>
   </si>
   <si>
-    <t>Lapinskin; Lang; Mangun</t>
-  </si>
-  <si>
     <t>Pitch Peek-The Intrepids</t>
   </si>
   <si>
@@ -1319,6 +1316,9 @@
   </si>
   <si>
     <t>http://danielclifford.co.uk/post/73247223368/learningcurve2</t>
+  </si>
+  <si>
+    <t>Michael Lapinskin; Swifty Lang; Chris Mangun</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1671,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,21 +2089,21 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
         <v>281</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>282</v>
-      </c>
-      <c r="E2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
         <v>284</v>
-      </c>
-      <c r="D3" t="s">
-        <v>285</v>
       </c>
       <c r="E3" t="s">
         <v>103</v>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
         <v>103</v>
@@ -2122,13 +2122,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" t="s">
         <v>289</v>
-      </c>
-      <c r="E5" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2171,15 +2171,15 @@
         <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" t="s">
         <v>292</v>
-      </c>
-      <c r="D3" t="s">
-        <v>293</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -2187,48 +2187,48 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" t="s">
         <v>294</v>
-      </c>
-      <c r="D4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" t="s">
         <v>296</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>297</v>
-      </c>
-      <c r="E5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" t="s">
         <v>299</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>300</v>
-      </c>
-      <c r="E6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" t="s">
         <v>302</v>
-      </c>
-      <c r="D7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" t="s">
         <v>304</v>
-      </c>
-      <c r="D8" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2241,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,35 +2268,35 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
         <v>306</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>307</v>
-      </c>
-      <c r="E2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" t="s">
         <v>309</v>
       </c>
-      <c r="D3" t="s">
-        <v>310</v>
-      </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" t="s">
         <v>311</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>312</v>
-      </c>
-      <c r="E4" t="s">
-        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2340,26 +2340,26 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
         <v>314</v>
-      </c>
-      <c r="D2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" t="s">
         <v>316</v>
-      </c>
-      <c r="D3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" t="s">
         <v>318</v>
-      </c>
-      <c r="D4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2367,215 +2367,215 @@
         <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" t="s">
         <v>321</v>
-      </c>
-      <c r="D6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" t="s">
         <v>323</v>
-      </c>
-      <c r="D7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" t="s">
         <v>325</v>
-      </c>
-      <c r="D8" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" t="s">
         <v>335</v>
-      </c>
-      <c r="D13" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" t="s">
         <v>337</v>
-      </c>
-      <c r="D14" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" t="s">
         <v>339</v>
-      </c>
-      <c r="D15" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" t="s">
         <v>341</v>
-      </c>
-      <c r="D16" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" t="s">
         <v>343</v>
-      </c>
-      <c r="D17" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" t="s">
         <v>345</v>
-      </c>
-      <c r="D18" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" t="s">
         <v>347</v>
-      </c>
-      <c r="D19" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" t="s">
         <v>349</v>
-      </c>
-      <c r="D20" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" t="s">
         <v>351</v>
-      </c>
-      <c r="D21" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" t="s">
         <v>353</v>
-      </c>
-      <c r="D22" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" t="s">
         <v>355</v>
-      </c>
-      <c r="D23" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>356</v>
+      </c>
+      <c r="D24" t="s">
         <v>357</v>
-      </c>
-      <c r="D24" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" t="s">
         <v>359</v>
-      </c>
-      <c r="D25" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D26" t="s">
         <v>361</v>
-      </c>
-      <c r="D26" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>362</v>
+      </c>
+      <c r="D27" t="s">
         <v>363</v>
-      </c>
-      <c r="D27" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>364</v>
+      </c>
+      <c r="D28" t="s">
         <v>365</v>
-      </c>
-      <c r="D28" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>366</v>
+      </c>
+      <c r="D29" t="s">
         <v>367</v>
-      </c>
-      <c r="D29" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>368</v>
+      </c>
+      <c r="D30" t="s">
         <v>369</v>
-      </c>
-      <c r="D30" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2591,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,21 +2622,21 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" t="s">
         <v>373</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>374</v>
-      </c>
-      <c r="E2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" t="s">
         <v>376</v>
-      </c>
-      <c r="D3" t="s">
-        <v>377</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" t="s">
         <v>378</v>
-      </c>
-      <c r="D4" t="s">
-        <v>379</v>
       </c>
       <c r="E4" t="s">
         <v>147</v>
@@ -2655,62 +2655,62 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" t="s">
         <v>380</v>
       </c>
-      <c r="D5" t="s">
-        <v>381</v>
-      </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" t="s">
         <v>382</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>383</v>
-      </c>
-      <c r="E6" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" t="s">
         <v>385</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>386</v>
-      </c>
-      <c r="E7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" t="s">
         <v>388</v>
       </c>
-      <c r="D8" t="s">
-        <v>389</v>
-      </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" t="s">
         <v>390</v>
-      </c>
-      <c r="D9" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" t="s">
         <v>392</v>
-      </c>
-      <c r="D10" t="s">
-        <v>393</v>
       </c>
       <c r="E10" t="s">
         <v>147</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" t="s">
         <v>394</v>
-      </c>
-      <c r="D11" t="s">
-        <v>395</v>
       </c>
       <c r="E11" t="s">
         <v>124</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" t="s">
         <v>396</v>
-      </c>
-      <c r="D12" t="s">
-        <v>397</v>
       </c>
       <c r="E12" t="s">
         <v>124</v>
@@ -2740,95 +2740,95 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" t="s">
         <v>398</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>399</v>
-      </c>
-      <c r="E13" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>400</v>
+      </c>
+      <c r="D14" t="s">
         <v>401</v>
       </c>
-      <c r="D14" t="s">
-        <v>402</v>
-      </c>
       <c r="E14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" t="s">
         <v>403</v>
       </c>
-      <c r="D15" t="s">
-        <v>404</v>
-      </c>
       <c r="E15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" t="s">
         <v>405</v>
       </c>
-      <c r="D16" t="s">
-        <v>406</v>
-      </c>
       <c r="E16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" t="s">
         <v>407</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>408</v>
-      </c>
-      <c r="E17" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D18" t="s">
         <v>410</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>411</v>
-      </c>
-      <c r="E18" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D19" t="s">
         <v>413</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>414</v>
-      </c>
-      <c r="E19" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D20" t="s">
         <v>416</v>
-      </c>
-      <c r="D20" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" t="s">
         <v>418</v>
-      </c>
-      <c r="D21" t="s">
-        <v>419</v>
       </c>
       <c r="E21" t="s">
         <v>122</v>
@@ -2836,35 +2836,35 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>419</v>
+      </c>
+      <c r="D22" t="s">
         <v>420</v>
       </c>
-      <c r="D22" t="s">
-        <v>421</v>
-      </c>
       <c r="E22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" t="s">
         <v>422</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>423</v>
-      </c>
-      <c r="E23" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>424</v>
+      </c>
+      <c r="D24" t="s">
         <v>425</v>
       </c>
-      <c r="D24" t="s">
-        <v>426</v>
-      </c>
       <c r="E24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3656,12 +3656,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919182F1-3829-492B-9B98-65383D2604FF}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3740,37 +3741,37 @@
         <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" t="s">
         <v>233</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>234</v>
-      </c>
-      <c r="E7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s">
         <v>236</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>237</v>
-      </c>
-      <c r="E8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
         <v>239</v>
-      </c>
-      <c r="D9" t="s">
-        <v>240</v>
       </c>
       <c r="E9" t="s">
         <v>103</v>
@@ -3778,10 +3779,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" t="s">
         <v>241</v>
-      </c>
-      <c r="D10" t="s">
-        <v>242</v>
       </c>
       <c r="E10" t="s">
         <v>103</v>
@@ -3789,10 +3790,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" t="s">
         <v>243</v>
-      </c>
-      <c r="D11" t="s">
-        <v>244</v>
       </c>
       <c r="E11" t="s">
         <v>116</v>
@@ -3800,10 +3801,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" t="s">
         <v>245</v>
-      </c>
-      <c r="D12" t="s">
-        <v>246</v>
       </c>
       <c r="E12" t="s">
         <v>116</v>
@@ -3811,21 +3812,21 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" t="s">
         <v>247</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>248</v>
-      </c>
-      <c r="E13" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" t="s">
         <v>250</v>
-      </c>
-      <c r="D14" t="s">
-        <v>251</v>
       </c>
       <c r="E14" t="s">
         <v>113</v>
@@ -3833,65 +3834,65 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
         <v>252</v>
       </c>
-      <c r="D15" t="s">
-        <v>253</v>
-      </c>
       <c r="E15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" t="s">
         <v>254</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>255</v>
-      </c>
-      <c r="E16" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" t="s">
         <v>257</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>258</v>
-      </c>
-      <c r="E17" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" t="s">
         <v>260</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>261</v>
-      </c>
-      <c r="E18" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" t="s">
         <v>263</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>264</v>
-      </c>
-      <c r="E19" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" t="s">
         <v>266</v>
-      </c>
-      <c r="D20" t="s">
-        <v>267</v>
       </c>
       <c r="E20" t="s">
         <v>210</v>
@@ -3899,10 +3900,10 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E21" t="s">
         <v>122</v>
@@ -3910,10 +3911,10 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E22" t="s">
         <v>122</v>
@@ -3921,10 +3922,10 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
         <v>122</v>
@@ -3932,10 +3933,10 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" t="s">
         <v>274</v>
-      </c>
-      <c r="D24" t="s">
-        <v>275</v>
       </c>
       <c r="E24" t="s">
         <v>122</v>
@@ -3950,7 +3951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648FF5B1-183C-4A41-B453-3C7F5332FDB3}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -3978,10 +3979,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" t="s">
         <v>276</v>
-      </c>
-      <c r="D2" t="s">
-        <v>277</v>
       </c>
       <c r="E2" t="s">
         <v>103</v>
@@ -3989,13 +3990,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
         <v>278</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>279</v>
-      </c>
-      <c r="E3" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
